--- a/data.xlsx
+++ b/data.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghrit\data\git-public\masters-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1753CF-8BF4-4C68-9F3C-2781E205235B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84438C39-EF2A-4213-AAD6-5C7E9AB90F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="108" windowWidth="22848" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="396" yWindow="0" windowWidth="22524" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="170">
   <si>
     <t>mentions</t>
   </si>
@@ -51,9 +59,6 @@
     <t>duration</t>
   </si>
   <si>
-    <t>placement</t>
-  </si>
-  <si>
     <t>Credit</t>
   </si>
   <si>
@@ -69,9 +74,6 @@
     <t>anecdotes</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>deadlines</t>
   </si>
   <si>
@@ -97,9 +99,6 @@
   </si>
   <si>
     <t> Faculty</t>
-  </si>
-  <si>
-    <t>Researched cost</t>
   </si>
   <si>
     <t>University of Toronto  </t>
@@ -143,9 +142,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>$38,580/ year/term - full tuition</t>
-  </si>
-  <si>
     <t>University of Waterloo  </t>
   </si>
   <si>
@@ -212,12 +208,6 @@
     <t>12mo</t>
   </si>
   <si>
-    <t> Decision Analytics, Data Mining and Visualization, Data and Distribution Systems for Analytics</t>
-  </si>
-  <si>
-    <t>experiential learning,mastery over the data analytics tools</t>
-  </si>
-  <si>
     <t>only fall feb 15</t>
   </si>
   <si>
@@ -242,15 +232,9 @@
     <t>16 mo</t>
   </si>
   <si>
-    <t xml:space="preserve"> Machine Learning, Distributed and Cloud Systems, Natural Language Processing, Data Mining, Programming for Big Data, Statistical Machine Learning, Deep Learning</t>
-  </si>
-  <si>
     <t>gain in-depth knowledge to tackle the vast amount of data generated today.</t>
   </si>
   <si>
-    <t>ndustry experts like IBM, SAP, Simba Technologies, Tableau, and Phemi.</t>
-  </si>
-  <si>
     <t> 7.0 overall,6.0, duolingo</t>
   </si>
   <si>
@@ -419,9 +403,6 @@
     <t>Besides, this University should be preferred for various aspects like it's location, reputation, industry ties, and a well set up start up environment.</t>
   </si>
   <si>
-    <t>24809.91 + 110</t>
-  </si>
-  <si>
     <t xml:space="preserve">  University of Victoria  </t>
   </si>
   <si>
@@ -438,13 +419,157 @@
   </si>
   <si>
     <t>Institution</t>
+  </si>
+  <si>
+    <t>Full pgm estimate</t>
+  </si>
+  <si>
+    <t>Tuition</t>
+  </si>
+  <si>
+    <t>Living</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Incidental</t>
+  </si>
+  <si>
+    <t>Ancilary</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>38952/Y</t>
+  </si>
+  <si>
+    <t>178408/y</t>
+  </si>
+  <si>
+    <t>https://www.sgs.utoronto.ca/programs/applied-computing/;https://planningandbudget.utoronto.ca/tuition-fee-lookup-tool/</t>
+  </si>
+  <si>
+    <t>7,696.00/T</t>
+  </si>
+  <si>
+    <t>6680/T</t>
+  </si>
+  <si>
+    <t>800/T</t>
+  </si>
+  <si>
+    <t>https://uwaterloo.ca/finance/graduate-incidental-fees-spring-2022;https://collegedunia.com/canada/college/11-university-of-waterloo-waterloo/master-of-science-msc-data-science-and-artificial-intelligence-203274</t>
+  </si>
+  <si>
+    <t>10963.05/T</t>
+  </si>
+  <si>
+    <t>8177/T</t>
+  </si>
+  <si>
+    <t>293.86/U</t>
+  </si>
+  <si>
+    <t>https://www.sfu.ca/computing/current-students/graduate-students/academic-programs/professional-master-of-science-in-computer-science/about-the-program.html#:~:text=For%20the%202021%2F22%20academic,(CAD)%20for%20international%20students.;http://www.sfu.ca/students/calendar/2020/fall/fees-and-regulations/tuition-fees/graduate.html;https://www.sfu.ca/students/financialaid/costs/international-students.html</t>
+  </si>
+  <si>
+    <t>10mo</t>
+  </si>
+  <si>
+    <t>Program design and data manipulation with Python;Computing Platforms for Data Science; Descriptive Statistics and Probability for Data Science;Algorithms and Data Structures;Data Visualization I ;Statistical Inference and Computation I;Databases and Data Retrieval;  Collaborative Software Development ; Web and Cloud Computing</t>
+  </si>
+  <si>
+    <t>students with the technical skills, practical experience, and most importantly, the confidence to seize opportunities in an ever-expanding field.</t>
+  </si>
+  <si>
+    <t>7.0 with 6.5 individual sent to us directly from the test centre.</t>
+  </si>
+  <si>
+    <t>17126.2/Y</t>
+  </si>
+  <si>
+    <t>1052.34/Y</t>
+  </si>
+  <si>
+    <t>https://www.grad.ubc.ca/prospective-students/graduate-degree-programs/master-of-data-science;https://masterdatascience.ubc.ca/programs/vancouver; https://masterdatascience.ubc.ca/admissions/how-applyhttps://masterdatascience.ubc.ca/admissions/international-students</t>
+  </si>
+  <si>
+    <t> Decision Analytics, Data Mining and Visualization, Data and Distribution Systems for Analytics; Electives like Social Media Analytics, Advanced Data Visualization, NLP, Deep Learning, Graph mining, DS 8011 Bayesian Statistics and Machine Learning etc</t>
+  </si>
+  <si>
+    <t>experiential learning,mastery over the data analytics tools; aims to promote business growth, economic development and employment generation;</t>
+  </si>
+  <si>
+    <t>Major research project required</t>
+  </si>
+  <si>
+    <t>110 </t>
+  </si>
+  <si>
+    <t>https://www.ryerson.ca/graduate/datascience/; https://www.ryerson.ca/housing/future-students/fees/;https://collegedunia.com/canada/college/52-ryerson-university-toronto/master-of-science-msc-data-science-and-analytics-195830</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Machine Learning, Distributed and Cloud Systems, Natural Language Processing, Data Mining, Programming for Big Data, Statistical Machine Learning, Deep Learning
+STAT 432: Survival Analysis
+STAT 471: Probability I
+STAT 479/503: Time Series Analysis
+STAT 512: Techniques of Mathematics for Statistics
+STAT 513: Statistical Computing
+STAT 532: Survival Analysis
+STAT 541: Statistics for Learning
+STAT 562: Discrete Data Analysis
+STAT 568: Design and Analysis of Experiments
+STAT 575: Multivariate Statistical Analysis
+STAT 578: Regression Analysis
+STAT 580: Stochastic Processes</t>
+  </si>
+  <si>
+    <t>Thesis Required;Industry experts like IBM, SAP, Simba Technologies, Tableau, and Phemi.</t>
+  </si>
+  <si>
+    <t>8700/Y</t>
+  </si>
+  <si>
+    <t>28640/Y</t>
+  </si>
+  <si>
+    <t>135 </t>
+  </si>
+  <si>
+    <t>623.04/Y</t>
+  </si>
+  <si>
+    <t>https://www.ualberta.ca/computing-science/graduate-studies/programs-and-admissions/statistical-machine-learning.html#msc-program;https://www.ualberta.ca/graduate-studies/current-students/tuition-and-fees/noninstructional-fees.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Polytechnique Montreal  </t>
+  </si>
+  <si>
+    <t>27 500</t>
+  </si>
+  <si>
+    <t>16-24</t>
+  </si>
+  <si>
+    <t> Forecasting methods, Decision Analysis, Statistical Modelling</t>
+  </si>
+  <si>
+    <t>making them skilled in advanced methods of analysis, optimization, modelling, machine learning, and statistics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  University of Regina  </t>
+  </si>
+  <si>
+    <t>Introduction to Data Science, Business Skills for Data Scientists, Statistical Modelling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,6 +663,41 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Whitney SSm A"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -572,7 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -623,6 +783,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -904,15 +1080,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -938,7 +1114,7 @@
       <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="6" t="s">
@@ -953,7 +1129,7 @@
       <c r="P1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -980,19 +1156,31 @@
       <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="AA1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF1" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="15">
+      <c r="A2" t="s">
         <v>22</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>25</v>
       </c>
       <c r="B2" s="7">
         <v>4</v>
@@ -1007,60 +1195,70 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I2" s="10">
         <v>60000</v>
       </c>
       <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="N2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="P2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="T2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="X2" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="25">
+        <v>68500</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB2" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC2" s="25">
+        <v>125</v>
+      </c>
+      <c r="AD2" s="13"/>
+      <c r="AF2" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="V2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="12">
-        <v>2.7</v>
-      </c>
-      <c r="AB2" s="12">
-        <v>20</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="B3" s="9">
         <v>4</v>
@@ -1075,119 +1273,156 @@
         <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I3" s="10">
         <v>16008</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="9">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="9">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="Y3" s="15">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB3" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC3">
+        <v>125</v>
+      </c>
+      <c r="AD3" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA3" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="AB3" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="B4" s="9">
         <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="9">
         <v>298</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I4" s="10">
         <v>40000</v>
       </c>
       <c r="K4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="9">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="9">
-        <v>36</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>14</v>
+      </c>
+      <c r="Z4" s="29">
+        <v>43852.2</v>
+      </c>
+      <c r="AA4" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB4" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC4">
+        <f>125+36</f>
+        <v>161</v>
+      </c>
+      <c r="AD4" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE4">
+        <v>75.13</v>
+      </c>
+      <c r="AF4" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" t="s">
         <v>49</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA4" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="AB4" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>53</v>
       </c>
       <c r="B5" s="9">
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D5" s="9">
         <v>37</v>
@@ -1196,28 +1431,61 @@
         <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="K5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="R5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" t="s">
-        <v>41</v>
-      </c>
-      <c r="V5" s="14"/>
-      <c r="AA5" s="15">
+      <c r="K5" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="L5" s="9">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>145</v>
+      </c>
+      <c r="N5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="T5" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" s="15">
         <v>2.1</v>
       </c>
-      <c r="AB5" s="15">
+      <c r="Y5" s="15">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="Z5" s="33">
+        <v>47734.68</v>
+      </c>
+      <c r="AB5" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>168.25</v>
+      </c>
+      <c r="AD5" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="16.8">
       <c r="A6" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B6" s="9">
         <v>4</v>
@@ -1229,61 +1497,70 @@
         <v>801</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I6" s="10">
         <v>45000</v>
       </c>
       <c r="K6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" t="s">
+        <v>151</v>
+      </c>
+      <c r="N6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O6" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6">
+        <v>7</v>
+      </c>
+      <c r="U6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X6" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>24809.91</v>
+      </c>
+      <c r="AC6" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="16.8">
+      <c r="A7" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T6" t="s">
-        <v>62</v>
-      </c>
-      <c r="U6" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="V6">
-        <v>7</v>
-      </c>
-      <c r="W6" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA6" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="AB6" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="B7" s="9">
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D7" s="9">
         <v>125</v>
@@ -1292,63 +1569,75 @@
         <v>126</v>
       </c>
       <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="9">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="U7" t="s">
+        <v>65</v>
+      </c>
+      <c r="V7" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB7" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC7" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD7" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF7" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="9">
-        <v>30</v>
-      </c>
-      <c r="N7" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S7" t="s">
-        <v>41</v>
-      </c>
-      <c r="T7" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="V7" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="W7" t="s">
-        <v>73</v>
-      </c>
-      <c r="X7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA7" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="AB7" s="15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>74</v>
       </c>
       <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D8" s="9">
         <v>44</v>
@@ -1357,99 +1646,93 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I8" s="10">
         <v>45900</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" s="9">
+        <v>68</v>
+      </c>
+      <c r="L8" s="9">
         <v>30</v>
       </c>
-      <c r="N8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S8" t="s">
-        <v>80</v>
-      </c>
-      <c r="T8">
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8">
         <v>2</v>
       </c>
-      <c r="W8" t="s">
-        <v>81</v>
-      </c>
-      <c r="X8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA8" s="12">
+      <c r="U8" t="s">
+        <v>73</v>
+      </c>
+      <c r="V8" t="s">
+        <v>73</v>
+      </c>
+      <c r="X8" s="12">
         <v>1.8</v>
       </c>
-      <c r="AB8" s="12">
+      <c r="Y8" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" ht="16.8">
       <c r="A9" s="13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B9" s="9">
         <v>3</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I9" s="10">
         <v>51000</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA9" s="15">
+        <v>79</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>37</v>
+      </c>
+      <c r="X9" s="15">
         <v>1.4</v>
       </c>
-      <c r="AB9" s="15">
+      <c r="Y9" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32">
       <c r="A10" s="13" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B10" s="9">
         <v>3</v>
@@ -1458,61 +1741,58 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I10" s="10">
         <v>72500</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="N10" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S10" t="s">
-        <v>41</v>
-      </c>
-      <c r="T10" t="s">
-        <v>94</v>
-      </c>
-      <c r="V10" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="W10" t="s">
-        <v>81</v>
-      </c>
-      <c r="X10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA10" s="12">
+        <v>84</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" t="s">
+        <v>86</v>
+      </c>
+      <c r="T10" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="U10" t="s">
+        <v>73</v>
+      </c>
+      <c r="V10" t="s">
+        <v>73</v>
+      </c>
+      <c r="X10" s="12">
         <v>1.4</v>
       </c>
-      <c r="AB10" s="12">
+      <c r="Y10" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32">
       <c r="A11" s="13" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B11" s="9">
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D11" s="9">
         <v>251</v>
@@ -1521,36 +1801,33 @@
         <v>240</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I11" s="10"/>
       <c r="K11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="R11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S11" t="s">
-        <v>41</v>
-      </c>
-      <c r="X11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA11" s="15">
+      <c r="L11" s="9"/>
+      <c r="Q11" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" t="s">
+        <v>90</v>
+      </c>
+      <c r="X11" s="15">
         <v>1.3</v>
       </c>
-      <c r="AB11" s="15">
+      <c r="Y11" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B12" s="9">
         <v>2</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D12" s="9">
         <v>201</v>
@@ -1559,36 +1836,33 @@
         <v>235</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I12" s="10"/>
       <c r="K12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="R12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S12" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA12" s="12">
+      <c r="L12" s="9"/>
+      <c r="Q12" t="s">
+        <v>37</v>
+      </c>
+      <c r="X12" s="12">
         <v>1.2</v>
       </c>
-      <c r="AB12" s="12">
+      <c r="Y12" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B13" s="9">
         <v>2</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D13" s="9">
         <v>201</v>
@@ -1597,27 +1871,24 @@
         <v>170</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="I13" s="10"/>
       <c r="K13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="R13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA13" s="12">
+      <c r="L13" s="9"/>
+      <c r="Q13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X13" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AB13" s="12">
+      <c r="Y13" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B14" s="9">
         <v>2</v>
@@ -1625,48 +1896,45 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I14" s="10">
         <v>33660</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="M14" s="9">
+        <v>98</v>
+      </c>
+      <c r="L14" s="9">
         <v>36</v>
       </c>
-      <c r="N14" t="s">
-        <v>107</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S14" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA14" s="15">
+      <c r="M14" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>37</v>
+      </c>
+      <c r="X14" s="15">
         <v>1</v>
       </c>
-      <c r="AB14" s="15">
+      <c r="Y14" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B15" s="9">
         <v>1</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D15" s="9">
         <v>162</v>
@@ -1675,33 +1943,30 @@
         <v>230</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="I15" s="10"/>
       <c r="K15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="R15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S15" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA15" s="12">
+      <c r="L15" s="9"/>
+      <c r="Q15" t="s">
+        <v>37</v>
+      </c>
+      <c r="X15" s="12">
         <v>1</v>
       </c>
-      <c r="AB15" s="12">
+      <c r="Y15" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B16" s="9">
         <v>1</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D16" s="9">
         <v>401</v>
@@ -1710,39 +1975,36 @@
         <v>494</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I16" s="10">
         <v>28500</v>
       </c>
       <c r="J16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>37</v>
+      </c>
+      <c r="X16" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" t="s">
         <v>106</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" t="s">
-        <v>113</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S16" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA16" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>114</v>
       </c>
       <c r="B17" s="9">
         <v>1</v>
@@ -1750,36 +2012,33 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I17" s="10"/>
       <c r="K17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="R17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S17" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA17" s="12">
+        <v>54</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="Q17" t="s">
+        <v>37</v>
+      </c>
+      <c r="X17" s="12">
         <v>1</v>
       </c>
-      <c r="AB17" s="12">
+      <c r="Y17" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D18" s="9">
         <v>88</v>
@@ -1791,121 +2050,113 @@
         <v>24480</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="9">
+        <v>35</v>
+      </c>
+      <c r="L18" s="9">
         <v>32</v>
       </c>
+      <c r="M18" t="s">
+        <v>110</v>
+      </c>
       <c r="N18" t="s">
-        <v>118</v>
-      </c>
-      <c r="O18" t="s">
-        <v>119</v>
-      </c>
-      <c r="P18" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="16.8" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="16.8">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I19" s="10">
         <v>23077.66</v>
       </c>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="9">
+        <v>54</v>
+      </c>
+      <c r="L19" s="9">
         <v>32</v>
       </c>
+      <c r="M19" t="s">
+        <v>116</v>
+      </c>
       <c r="N19" t="s">
-        <v>124</v>
-      </c>
-      <c r="O19" t="s">
-        <v>125</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q19" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA19">
+        <v>117</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>37</v>
+      </c>
+      <c r="X19">
         <v>2</v>
       </c>
-      <c r="AB19">
+      <c r="Y19">
         <v>2</v>
       </c>
-      <c r="AC19" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E20" s="9">
         <v>334</v>
       </c>
       <c r="I20" s="10"/>
       <c r="K20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="R20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S20" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA20" s="15">
+      <c r="L20" s="9"/>
+      <c r="Q20" t="s">
+        <v>37</v>
+      </c>
+      <c r="X20" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AB20" s="15">
+      <c r="Y20" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9">
@@ -1913,59 +2164,243 @@
       </c>
       <c r="I21" s="10"/>
       <c r="K21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="R21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA21" s="12">
+      <c r="L21" s="9"/>
+      <c r="Q21" t="s">
+        <v>37</v>
+      </c>
+      <c r="X21" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AB21" s="12">
+      <c r="Y21" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I22" s="10"/>
       <c r="K22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="R22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA22" s="15">
+      <c r="L22" s="9"/>
+      <c r="Q22" t="s">
+        <v>37</v>
+      </c>
+      <c r="X22" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AB22" s="15">
+      <c r="Y22" s="15">
         <v>1</v>
       </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="10">
+        <v>52047.56</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" t="s">
+        <v>169</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="Q25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="37"/>
+      <c r="I27" s="10"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="37"/>
+      <c r="I28" s="10"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="37"/>
+      <c r="I29" s="10"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="37"/>
+      <c r="I31" s="10"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="37"/>
+      <c r="I34" s="10"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="37"/>
+      <c r="I35" s="10"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="37"/>
+      <c r="I36" s="10"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="► University of Toronto  " xr:uid="{C20EA086-0F2B-4B5B-AF95-913EB550ABB6}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{63EC375E-550B-4AC6-8B4A-A443075478C1}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{4CB2898B-AEE0-4650-BB9F-9CF10669CED0}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{6940452F-B9C5-480D-8894-4935FEB94D20}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{62D9F920-8543-4C12-A5FC-A92EA3BDBF86}"/>
-    <hyperlink ref="A9" r:id="rId6" xr:uid="{91037DB1-609C-4D86-89B9-EA7F91D89794}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{4232C328-1193-4B6A-826B-51C64D8B5C20}"/>
-    <hyperlink ref="A10" r:id="rId8" xr:uid="{1072F841-86E0-40DF-85FB-B00A0F9A527E}"/>
-    <hyperlink ref="A11" r:id="rId9" xr:uid="{F048A3E3-AFB6-4D5D-97B8-DFBE30A277D4}"/>
+    <hyperlink ref="A2" r:id="rId1" display="► University of Toronto  " xr:uid="{624D63C7-56CD-48C6-A265-41F859B92ED2}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{E2BFD4E6-5440-42C4-BD6E-FC4D2720136F}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{53EEAB11-260D-4887-BBC0-4EDDEE96279A}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{62C840B0-6350-4F01-A3F7-8777D6D4F295}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{296B96FB-5CA8-4F2C-84B9-5B8B2544B40E}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{0D6395EF-9C4D-4C9B-9193-820A6136A05D}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{6CDDA917-7489-4C3D-8F49-21F42525AE00}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{2D20A774-5746-4B3A-83F0-912AF54C8C4F}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{2033168B-BC5F-4F8F-A07C-A3E3CF337C81}"/>
+    <hyperlink ref="AF2" r:id="rId10" xr:uid="{8679F702-E28E-4C90-B6AF-95889393EE40}"/>
+    <hyperlink ref="AF3" r:id="rId11" xr:uid="{A9500F53-6DAC-4F8E-9967-1FD0B90737A5}"/>
+    <hyperlink ref="AF4" r:id="rId12" location=":~:text=For%20the%202021%2F22%20academic,(CAD)%20for%20international%20students.;http://www.sfu.ca/students/calendar/2020/fall/fees-and-regulations/tuition-fees/graduate.html;https://www.sfu.ca/students/financialaid/costs/international-students.html" display="https://www.sfu.ca/computing/current-students/graduate-students/academic-programs/professional-master-of-science-in-computer-science/about-the-program.html#:~:text=For%20the%202021%2F22%20academic,(CAD)%20for%20international%20students.;http://www.sfu.ca/students/calendar/2020/fall/fees-and-regulations/tuition-fees/graduate.html;https://www.sfu.ca/students/financialaid/costs/international-students.html" xr:uid="{12BF6593-6FDE-417B-8B20-9BDA01EF10D2}"/>
+    <hyperlink ref="AF5" r:id="rId13" display="https://www.grad.ubc.ca/prospective-students/graduate-degree-programs/master-of-data-science;https://masterdatascience.ubc.ca/programs/vancouver;" xr:uid="{2FD3B8FA-80FF-4F14-BD00-1E251F192A0B}"/>
+    <hyperlink ref="AF6" r:id="rId14" display="https://www.ryerson.ca/graduate/datascience/;" xr:uid="{9E527084-5D73-4D6A-8380-DEA0FC16A861}"/>
+    <hyperlink ref="AF7" r:id="rId15" location="msc-program;https://www.ualberta.ca/graduate-studies/current-students/tuition-and-fees/noninstructional-fees.html" xr:uid="{BDF67801-A54A-40AC-B2A2-7520E7E2F15F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghrit\data\git-public\masters-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84438C39-EF2A-4213-AAD6-5C7E9AB90F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5446C289-CD2E-427B-8ECE-DB1E814B579B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="0" windowWidth="22524" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="324" yWindow="0" windowWidth="22524" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="185">
   <si>
     <t>mentions</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Cost/Y</t>
   </si>
   <si>
-    <t>cost desc</t>
-  </si>
-  <si>
     <t>duration</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>References</t>
   </si>
   <si>
-    <t>Grade</t>
-  </si>
-  <si>
     <t>IELTS</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
   </si>
   <si>
     <t>Master of Science in Applied Computing Concentration in Data Science</t>
-  </si>
-  <si>
-    <t>tuition</t>
   </si>
   <si>
     <t>16 mo, 8 mo internship</t>
@@ -247,21 +238,9 @@
     <t>Master of Management Analytics (MMA), Masters in Data Science</t>
   </si>
   <si>
-    <t>10 mo</t>
-  </si>
-  <si>
-    <t>Programming for Data Science, Statistical Inference and Computation I, Data Science Workflows, Data Visualization II, Collaborative Software Development, Advanced Machine Learning, Web and Cloud Computing</t>
-  </si>
-  <si>
-    <t>professional,real world,statistical and computational perspectives</t>
-  </si>
-  <si>
     <t> data extraction for experimental use, application of complex techniques in data analysis and how to present and visualize the extracted data to domain experts. Utilizing descriptive and prescriptive techniques, students will extract and analyze data from both unstructured and structured forms.;This course is ranked #2 in Canada in terms of quality education and the average salary of the graduate after getting placed is $110,000.</t>
   </si>
   <si>
-    <t>only fall jan end</t>
-  </si>
-  <si>
     <t>yes or</t>
   </si>
   <si>
@@ -280,21 +259,9 @@
     <t>Data Science collaborative programs in 13 academic disciplines ranging from M.C.S Computer Science, M.A Economics, M.A Communication, Master of Cognitive Science</t>
   </si>
   <si>
-    <t>24mo</t>
-  </si>
-  <si>
-    <t>Data Science Seminar, Critical Data Studies, Data Integration</t>
-  </si>
-  <si>
-    <t>HEC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Master of Science (MSc) – Data Science and Business Analytics </t>
   </si>
   <si>
-    <t> Big Data Analytics, Analytical Decision Making, Predictive Modelling</t>
-  </si>
-  <si>
     <t>balanced academic curriculum comprising of core data analytics concepts and tools along with courses on business strategy</t>
   </si>
   <si>
@@ -313,9 +280,6 @@
     <t>Master of Management Analytics (MMA)</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">  University of Calgary  </t>
   </si>
   <si>
@@ -368,9 +332,6 @@
   </si>
   <si>
     <t xml:space="preserve">  University of Montreal </t>
-  </si>
-  <si>
-    <t>4   </t>
   </si>
   <si>
     <t>Data and Database Management for Data Science, Theoretical Machine Learning, Linear Models for Data Science, Statistical Design and Inference for Data Science</t>
@@ -564,12 +525,107 @@
   <si>
     <t>Introduction to Data Science, Business Skills for Data Scientists, Statistical Modelling</t>
   </si>
+  <si>
+    <t>Grade (CGPA)</t>
+  </si>
+  <si>
+    <t>1y/1.5y option</t>
+  </si>
+  <si>
+    <t>Analytics and Solution Consulting Practicum (3 credits);Coding Foundations for Analytics (3 credits);Database and Distributed Systems for Analytics (3 credits);Data Mining and Visualization (3 credits);Mathematical and Statistical Foundations for Analytics (3 credits);Multivariate Statistical Analysis (3 credits);Decision Analytics (3 credits);Managing Data Analytics Teams (1.5 credits);Ethical Leadership and Leading Change (1.5 credits);</t>
+  </si>
+  <si>
+    <t>professional,real world,statistical and computational perspectives. 3 pillars: Advanced(Machine Learning
+Resampling
+Methods
+Optimization) , Technology(Coding with R/Python/SQL,Cloud Infrastructure,Technology Stack) , Business Strategy(Consulting Discovery,Solution Development,Data Visualization)</t>
+  </si>
+  <si>
+    <t>January 31, 2022</t>
+  </si>
+  <si>
+    <t>3.00/4 , GPA(3.2/4)</t>
+  </si>
+  <si>
+    <t>not specified</t>
+  </si>
+  <si>
+    <t>125.71 </t>
+  </si>
+  <si>
+    <t>https://www.mcgill.ca/desautels/programs/mma;https://www.mcgill.ca/study/2021-2022/faculties/desautels/graduate/programs/master-management-mm-analytics-non-thesis#mm-analyt-n_any5_major_mg;https://www.mcgill.ca/desautels/programs/mma/admissions/tuition-financial-aid</t>
+  </si>
+  <si>
+    <t>2 years</t>
+  </si>
+  <si>
+    <t>Requirements - Thesis Option (5.0 credits) 
+1.  0.5 credit in DATA 5000 - Data Science Seminar 
+2.  2.0 credits in course work. Course work must include a minimum of 1.5 credits of OCICS courses in at least three different research areas. See OCICS course listing by research areas. 2.0
+3.  2.5 credits in: M.C.S. Thesis (M.C.S. Thesis must be in an area of Data Science and requires approval from the Institute of Data Science. Each candidate submitting a thesis will be required to undertake an oral defence of the thesis.) 
+Total Credits 5.0
+3.  2.5 credits in: 2.5
+COMP 5905 [2.5]
+M.C.S. Thesis (M.C.S. Thesis must be in an area of Data Science and requires approval from the Institute of Data Science. Each candidate submitting a thesis will be required to undertake an oral defence of the thesis.) 
+Total Credits 5.0</t>
+  </si>
+  <si>
+    <t>Thesis</t>
+  </si>
+  <si>
+    <t>2. 1 academic recommended</t>
+  </si>
+  <si>
+    <t>6.5 IELTS (minimum 6.0 in each band)</t>
+  </si>
+  <si>
+    <t>10600/T</t>
+  </si>
+  <si>
+    <t>https://graduate.carleton.ca/apply-online/deadlines/graduate-program-deadlines/;https://carleton.ca/scs/future-students/graduate-studies/how-to-apply-to-graduate-school-in-computer-science/;https://graduate.carleton.ca/financial-assistance/cost-and-fees/</t>
+  </si>
+  <si>
+    <t>HEC - University of montreal</t>
+  </si>
+  <si>
+    <t>81-90</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16-24mo</t>
+  </si>
+  <si>
+    <t>7 or 12(thesis or project); Supervised project stream:;compulsary - (Statistical Modeling,Algorithms for Optimization and Big Data Analysis,ADecision Analysis,Implementation of Business Optimization Models,Forecasting Methods,Machine Learning II: Deep Learning,Advanced Statistical Learning,Machine Learning I: Large-Scale Data Analysis and Decision Making etc, Statistical Learning, optimization) </t>
+  </si>
+  <si>
+    <t>4 sems</t>
+  </si>
+  <si>
+    <t>30 000 thesis/ 34 200 project</t>
+  </si>
+  <si>
+    <t>https://www.hec.ca/en/programs/masters/master-data-science-business-analytics/;https://www.hec.ca/en/students/funding-my-studies/sample-budget/;https://www.hec.ca/en/programs/online-admission/masters/step-1/index.html</t>
+  </si>
+  <si>
+    <t>Acquistion and management of data; AI Ethics Policy; Analytical Decision making; Analytics for financial markets; Analytics project management; Big Data Analytics; Creating High-Performance Teams; Entrepreneurship and innovation; introduction to analytic modelling; intro to management; leading change; ml andAI; marketting analysis; ops and supply chain analytic; predictive modelling; pricing analytics</t>
+  </si>
+  <si>
+    <t>recommended</t>
+  </si>
+  <si>
+    <t>79900(inclusive of living)</t>
+  </si>
+  <si>
+    <t>https://smith.queensu.ca/grad_studies/mma/;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,39 +720,27 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Whitney SSm A"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF313131"/>
+      <name val="Gotham Narrow SSm A"/>
     </font>
   </fonts>
   <fills count="4">
@@ -719,7 +763,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -727,12 +771,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -765,14 +824,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -784,21 +837,25 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1080,15 +1137,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF36"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1108,7 +1170,7 @@
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="6" t="s">
@@ -1126,61 +1188,58 @@
       <c r="O1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE1" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" t="s">
         <v>20</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF1" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="15">
-      <c r="A2" t="s">
-        <v>22</v>
       </c>
       <c r="B2" s="7">
         <v>4</v>
@@ -1195,70 +1254,68 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="10">
         <v>60000</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="M2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="O2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="X2" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>68500</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB2" s="9">
+        <v>125</v>
+      </c>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="T2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2">
-        <v>4</v>
-      </c>
-      <c r="X2" s="12">
-        <v>2.7</v>
-      </c>
-      <c r="Y2" s="12">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="25">
-        <v>68500</v>
-      </c>
-      <c r="AA2" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB2" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC2" s="25">
-        <v>125</v>
-      </c>
-      <c r="AD2" s="13"/>
-      <c r="AF2" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32">
-      <c r="A3" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="B3" s="9">
         <v>4</v>
@@ -1273,156 +1330,155 @@
         <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I3" s="10">
         <v>16008</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="9">
         <v>24</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="9">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="X3" s="9">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>125</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="R3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3">
-        <v>3</v>
-      </c>
-      <c r="X3" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="Y3" s="15">
-        <v>12</v>
-      </c>
-      <c r="AA3" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB3" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC3">
-        <v>125</v>
-      </c>
-      <c r="AD3" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF3" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32">
-      <c r="A4" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="B4" s="9">
         <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="9">
         <v>298</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I4" s="10">
         <v>40000</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="J4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="9">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="9">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="O4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>37</v>
+      <c r="P4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" t="s">
+        <v>28</v>
       </c>
       <c r="T4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4">
+        <v>29</v>
+      </c>
+      <c r="V4">
         <v>4</v>
       </c>
-      <c r="X4" s="12">
+      <c r="W4" s="9">
         <v>2.5</v>
       </c>
-      <c r="Y4" s="12">
+      <c r="X4" s="9">
         <v>14</v>
       </c>
-      <c r="Z4" s="29">
+      <c r="Y4" s="9">
         <v>43852.2</v>
       </c>
-      <c r="AA4" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB4" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC4">
+      <c r="Z4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB4" s="9">
         <f>125+36</f>
         <v>161</v>
       </c>
-      <c r="AD4" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE4">
+      <c r="AC4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD4" s="9">
         <v>75.13</v>
       </c>
-      <c r="AF4" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AE4" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" s="9">
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="9">
         <v>37</v>
@@ -1431,61 +1487,63 @@
         <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="K5" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="L5" s="9">
+      <c r="J5" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="9">
         <v>24</v>
       </c>
+      <c r="L5" t="s">
+        <v>132</v>
+      </c>
       <c r="M5" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5">
+        <v>133</v>
+      </c>
+      <c r="P5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5">
         <v>3</v>
       </c>
-      <c r="T5" s="32" t="s">
-        <v>147</v>
+      <c r="S5" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="T5" t="s">
+        <v>29</v>
       </c>
       <c r="U5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X5" s="15">
+        <v>29</v>
+      </c>
+      <c r="W5" s="9">
         <v>2.1</v>
       </c>
-      <c r="Y5" s="15">
+      <c r="X5" s="9">
         <v>6</v>
       </c>
-      <c r="Z5" s="33">
+      <c r="Y5" s="9">
         <v>47734.68</v>
       </c>
-      <c r="AB5" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC5" s="34">
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB5" s="9">
         <v>168.25</v>
       </c>
-      <c r="AD5" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF5" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="16.8">
-      <c r="A6" s="13" t="s">
-        <v>51</v>
+      <c r="AC5" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="16.8">
+      <c r="A6" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="B6" s="9">
         <v>4</v>
@@ -1496,71 +1554,75 @@
       <c r="D6" s="9">
         <v>801</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>52</v>
+      <c r="E6" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I6" s="10">
         <v>45000</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="J6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" t="s">
+        <v>139</v>
+      </c>
+      <c r="N6" t="s">
+        <v>140</v>
+      </c>
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" t="s">
-        <v>151</v>
-      </c>
-      <c r="N6" t="s">
-        <v>152</v>
-      </c>
-      <c r="O6" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="S6">
+        <v>7</v>
+      </c>
+      <c r="T6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="X6" s="9">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>24809.91</v>
+      </c>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="16.8">
+      <c r="A7" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="R6" t="s">
-        <v>56</v>
-      </c>
-      <c r="S6" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="T6">
-        <v>7</v>
-      </c>
-      <c r="U6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X6" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="Y6" s="12">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="23">
-        <v>24809.91</v>
-      </c>
-      <c r="AC6" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF6" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="16.8">
-      <c r="A7" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="B7" s="9">
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" s="9">
         <v>125</v>
@@ -1569,75 +1631,77 @@
         <v>126</v>
       </c>
       <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="9">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="N7" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="T7" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="9">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s">
-        <v>156</v>
-      </c>
-      <c r="N7" s="11" t="s">
+      <c r="U7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W7" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="X7" s="9">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S7" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="T7" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="U7" t="s">
-        <v>65</v>
-      </c>
-      <c r="V7" t="s">
-        <v>32</v>
-      </c>
-      <c r="X7" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="Y7" s="15">
-        <v>7</v>
-      </c>
-      <c r="AA7" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB7" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC7" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD7" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF7" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32">
-      <c r="A8" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="9">
         <v>44</v>
@@ -1646,153 +1710,228 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I8" s="10">
         <v>45900</v>
       </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="9">
-        <v>30</v>
-      </c>
-      <c r="M8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>72</v>
-      </c>
-      <c r="R8">
+      <c r="J8" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K8" s="9">
+        <v>45</v>
+      </c>
+      <c r="L8" t="s">
+        <v>159</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q8">
         <v>2</v>
       </c>
+      <c r="R8" t="s">
+        <v>162</v>
+      </c>
+      <c r="S8" t="s">
+        <v>163</v>
+      </c>
+      <c r="T8" t="s">
+        <v>66</v>
+      </c>
       <c r="U8" t="s">
-        <v>73</v>
-      </c>
-      <c r="V8" t="s">
-        <v>73</v>
-      </c>
-      <c r="X8" s="12">
+        <v>66</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8" s="9">
         <v>1.8</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="X8" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" ht="16.8">
-      <c r="A9" s="13" t="s">
-        <v>74</v>
+      <c r="Y8" s="9">
+        <v>54990</v>
+      </c>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9">
+        <v>19811</v>
+      </c>
+      <c r="AB8" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>2000</v>
+      </c>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="17.399999999999999" thickBot="1">
+      <c r="A9" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="B9" s="9">
         <v>3</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="I9" s="10">
         <v>51000</v>
       </c>
-      <c r="J9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="11" t="s">
-        <v>80</v>
+      <c r="J9" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="K9" s="9">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>167</v>
+      </c>
+      <c r="N9" t="s">
+        <v>168</v>
+      </c>
+      <c r="P9" s="29">
+        <v>44576</v>
       </c>
       <c r="Q9" t="s">
-        <v>37</v>
-      </c>
-      <c r="X9" s="15">
+        <v>169</v>
+      </c>
+      <c r="S9" t="s">
+        <v>170</v>
+      </c>
+      <c r="T9" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" t="s">
+        <v>29</v>
+      </c>
+      <c r="W9" s="9">
         <v>1.4</v>
       </c>
-      <c r="Y9" s="15">
+      <c r="X9" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:32">
-      <c r="A10" s="13" t="s">
-        <v>81</v>
+      <c r="Y9" s="9">
+        <v>53501</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>18200</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>110</v>
+      </c>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="15" thickBot="1">
+      <c r="A10" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="B10" s="9">
         <v>3</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="9">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9">
+        <v>88</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>174</v>
+      </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I10" s="10">
         <v>72500</v>
       </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="9"/>
+      <c r="J10" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="K10" s="9">
+        <v>45</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>176</v>
+      </c>
       <c r="M10" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>85</v>
+        <v>73</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="31">
+        <v>42064</v>
       </c>
       <c r="Q10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" t="s">
-        <v>86</v>
-      </c>
-      <c r="T10" s="22" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="S10" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="T10" t="s">
+        <v>66</v>
       </c>
       <c r="U10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="V10" t="s">
-        <v>73</v>
-      </c>
-      <c r="X10" s="12">
+        <v>177</v>
+      </c>
+      <c r="W10" s="9">
         <v>1.4</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="X10" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:32">
-      <c r="A11" s="13" t="s">
-        <v>88</v>
+      <c r="Y10" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9">
+        <v>30810</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>302.64</v>
+      </c>
+      <c r="AE10" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="B11" s="9">
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D11" s="9">
         <v>251</v>
@@ -1801,33 +1940,47 @@
         <v>240</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I11" s="10"/>
+      <c r="J11" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="Q11" t="s">
-        <v>37</v>
-      </c>
-      <c r="V11" t="s">
-        <v>90</v>
-      </c>
-      <c r="X11" s="15">
+      <c r="L11" t="s">
+        <v>180</v>
+      </c>
+      <c r="P11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11">
+        <v>6.5</v>
+      </c>
+      <c r="U11" t="s">
+        <v>181</v>
+      </c>
+      <c r="W11" s="9">
         <v>1.3</v>
       </c>
-      <c r="Y11" s="15">
+      <c r="X11" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="Y11" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE11" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B12" s="9">
         <v>2</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D12" s="9">
         <v>201</v>
@@ -1836,33 +1989,33 @@
         <v>235</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I12" s="10"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="Q12" t="s">
-        <v>37</v>
-      </c>
-      <c r="X12" s="12">
+      <c r="P12" t="s">
+        <v>34</v>
+      </c>
+      <c r="W12" s="9">
         <v>1.2</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="X12" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B13" s="9">
         <v>2</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D13" s="9">
         <v>201</v>
@@ -1871,24 +2024,27 @@
         <v>170</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I13" s="10"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="Q13" t="s">
-        <v>37</v>
-      </c>
-      <c r="X13" s="12">
+      <c r="P13" t="s">
+        <v>34</v>
+      </c>
+      <c r="V13" t="s">
+        <v>34</v>
+      </c>
+      <c r="W13" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y13" s="12">
+      <c r="X13" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B14" s="9">
         <v>2</v>
@@ -1896,45 +2052,42 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>97</v>
+        <v>23</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="I14" s="10">
         <v>33660</v>
       </c>
-      <c r="J14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" s="9">
+      <c r="J14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="9">
         <v>36</v>
       </c>
-      <c r="M14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>37</v>
-      </c>
-      <c r="X14" s="15">
+      <c r="L14" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" t="s">
+        <v>34</v>
+      </c>
+      <c r="W14" s="9">
         <v>1</v>
       </c>
-      <c r="Y14" s="15">
+      <c r="X14" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B15" s="9">
         <v>1</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D15" s="9">
         <v>162</v>
@@ -1943,30 +2096,33 @@
         <v>230</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="I15" s="10"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="Q15" t="s">
-        <v>37</v>
-      </c>
-      <c r="X15" s="12">
+      <c r="P15" t="s">
+        <v>34</v>
+      </c>
+      <c r="W15" s="9">
         <v>1</v>
       </c>
-      <c r="Y15" s="12">
+      <c r="X15" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="Y15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B16" s="9">
         <v>1</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D16" s="9">
         <v>401</v>
@@ -1975,36 +2131,33 @@
         <v>494</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I16" s="10">
         <v>28500</v>
       </c>
-      <c r="J16" t="s">
-        <v>24</v>
+      <c r="J16" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>37</v>
-      </c>
-      <c r="X16" s="15">
+        <v>23</v>
+      </c>
+      <c r="L16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" t="s">
+        <v>34</v>
+      </c>
+      <c r="W16" s="9">
         <v>1</v>
       </c>
-      <c r="Y16" s="15">
+      <c r="X16" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B17" s="9">
         <v>1</v>
@@ -2012,33 +2165,33 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="I17" s="10"/>
-      <c r="K17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="9"/>
-      <c r="Q17" t="s">
-        <v>37</v>
-      </c>
-      <c r="X17" s="12">
+      <c r="J17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="P17" t="s">
+        <v>34</v>
+      </c>
+      <c r="W17" s="9">
         <v>1</v>
       </c>
-      <c r="Y17" s="12">
+      <c r="X17" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
-        <v>109</v>
+      <c r="C18" s="9">
+        <v>6</v>
       </c>
       <c r="D18" s="9">
         <v>88</v>
@@ -2049,358 +2202,351 @@
       <c r="I18" s="10">
         <v>24480</v>
       </c>
-      <c r="J18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="9">
+      <c r="J18" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="K18" s="9">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>97</v>
+      </c>
       <c r="M18" t="s">
-        <v>110</v>
-      </c>
-      <c r="N18" t="s">
-        <v>111</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="16.8">
+        <v>98</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" t="s">
+        <v>34</v>
+      </c>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+    </row>
+    <row r="19" spans="1:28" ht="16.8">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>77</v>
+        <v>102</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="I19" s="10">
         <v>23077.66</v>
       </c>
-      <c r="J19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L19" s="9">
+      <c r="J19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="9">
         <v>32</v>
       </c>
+      <c r="L19" t="s">
+        <v>103</v>
+      </c>
       <c r="M19" t="s">
-        <v>116</v>
-      </c>
-      <c r="N19" t="s">
-        <v>117</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P19" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>37</v>
-      </c>
-      <c r="X19">
+        <v>104</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" t="s">
+        <v>34</v>
+      </c>
+      <c r="W19" s="9">
         <v>2</v>
       </c>
-      <c r="Y19">
+      <c r="X19" s="9">
         <v>2</v>
       </c>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E20" s="9">
         <v>334</v>
       </c>
       <c r="I20" s="10"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="Q20" t="s">
-        <v>37</v>
-      </c>
-      <c r="X20" s="15">
+      <c r="P20" t="s">
+        <v>34</v>
+      </c>
+      <c r="W20" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y20" s="15">
+      <c r="X20" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9">
         <v>458</v>
       </c>
       <c r="I21" s="10"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="Q21" t="s">
-        <v>37</v>
-      </c>
-      <c r="X21" s="12">
+      <c r="P21" t="s">
+        <v>34</v>
+      </c>
+      <c r="W21" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y21" s="12">
+      <c r="X21" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I22" s="10"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="Q22" t="s">
-        <v>37</v>
-      </c>
-      <c r="X22" s="15">
+      <c r="P22" t="s">
+        <v>34</v>
+      </c>
+      <c r="W22" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y22" s="15">
+      <c r="X22" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>26</v>
+        <v>108</v>
+      </c>
+      <c r="D23" s="9">
+        <v>88</v>
+      </c>
+      <c r="E23" s="9">
+        <v>111</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="J23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="L23" s="9"/>
+        <v>151</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="M23" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+        <v>154</v>
+      </c>
+      <c r="P23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I24" s="10">
         <v>52047.56</v>
       </c>
-      <c r="J24" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="L24" s="9"/>
-      <c r="M24" t="s">
-        <v>169</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="J24" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" t="s">
+        <v>156</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="I25" s="10"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="Q25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
+    </row>
+    <row r="26" spans="1:28">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="I26" s="10"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="1:29">
+    </row>
+    <row r="27" spans="1:28">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="37"/>
+      <c r="F27" s="25"/>
       <c r="I27" s="10"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-    </row>
-    <row r="28" spans="1:29">
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+    </row>
+    <row r="28" spans="1:28">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="37"/>
+      <c r="F28" s="25"/>
       <c r="I28" s="10"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="1:29">
+    </row>
+    <row r="29" spans="1:28">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="37"/>
+      <c r="F29" s="25"/>
       <c r="I29" s="10"/>
+      <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="1:29">
+    </row>
+    <row r="30" spans="1:28">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="I30" s="10"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="1:29">
+    </row>
+    <row r="31" spans="1:28">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="37"/>
+      <c r="F31" s="25"/>
       <c r="I31" s="10"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="1:29">
+    </row>
+    <row r="32" spans="1:28">
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="I32" s="10"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="2:12">
+    </row>
+    <row r="33" spans="2:11">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="I33" s="10"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-    </row>
-    <row r="34" spans="2:12">
+    </row>
+    <row r="34" spans="2:11">
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="37"/>
+      <c r="F34" s="25"/>
       <c r="I34" s="10"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="2:12">
+    </row>
+    <row r="35" spans="2:11">
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="37"/>
+      <c r="F35" s="25"/>
       <c r="I35" s="10"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="2:12">
+    </row>
+    <row r="36" spans="2:11">
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="37"/>
+      <c r="F36" s="25"/>
       <c r="I36" s="10"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="► University of Toronto  " xr:uid="{624D63C7-56CD-48C6-A265-41F859B92ED2}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{E2BFD4E6-5440-42C4-BD6E-FC4D2720136F}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{53EEAB11-260D-4887-BBC0-4EDDEE96279A}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{62C840B0-6350-4F01-A3F7-8777D6D4F295}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{296B96FB-5CA8-4F2C-84B9-5B8B2544B40E}"/>
-    <hyperlink ref="A9" r:id="rId6" xr:uid="{0D6395EF-9C4D-4C9B-9193-820A6136A05D}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{6CDDA917-7489-4C3D-8F49-21F42525AE00}"/>
-    <hyperlink ref="A10" r:id="rId8" xr:uid="{2D20A774-5746-4B3A-83F0-912AF54C8C4F}"/>
-    <hyperlink ref="A11" r:id="rId9" xr:uid="{2033168B-BC5F-4F8F-A07C-A3E3CF337C81}"/>
-    <hyperlink ref="AF2" r:id="rId10" xr:uid="{8679F702-E28E-4C90-B6AF-95889393EE40}"/>
-    <hyperlink ref="AF3" r:id="rId11" xr:uid="{A9500F53-6DAC-4F8E-9967-1FD0B90737A5}"/>
-    <hyperlink ref="AF4" r:id="rId12" location=":~:text=For%20the%202021%2F22%20academic,(CAD)%20for%20international%20students.;http://www.sfu.ca/students/calendar/2020/fall/fees-and-regulations/tuition-fees/graduate.html;https://www.sfu.ca/students/financialaid/costs/international-students.html" display="https://www.sfu.ca/computing/current-students/graduate-students/academic-programs/professional-master-of-science-in-computer-science/about-the-program.html#:~:text=For%20the%202021%2F22%20academic,(CAD)%20for%20international%20students.;http://www.sfu.ca/students/calendar/2020/fall/fees-and-regulations/tuition-fees/graduate.html;https://www.sfu.ca/students/financialaid/costs/international-students.html" xr:uid="{12BF6593-6FDE-417B-8B20-9BDA01EF10D2}"/>
-    <hyperlink ref="AF5" r:id="rId13" display="https://www.grad.ubc.ca/prospective-students/graduate-degree-programs/master-of-data-science;https://masterdatascience.ubc.ca/programs/vancouver;" xr:uid="{2FD3B8FA-80FF-4F14-BD00-1E251F192A0B}"/>
-    <hyperlink ref="AF6" r:id="rId14" display="https://www.ryerson.ca/graduate/datascience/;" xr:uid="{9E527084-5D73-4D6A-8380-DEA0FC16A861}"/>
-    <hyperlink ref="AF7" r:id="rId15" location="msc-program;https://www.ualberta.ca/graduate-studies/current-students/tuition-and-fees/noninstructional-fees.html" xr:uid="{BDF67801-A54A-40AC-B2A2-7520E7E2F15F}"/>
+    <hyperlink ref="A2" r:id="rId1" display="► University of Toronto  " xr:uid="{B09B0BE7-D0C1-4E49-81C4-18E10A4B7B0F}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{748C9DA2-ED8E-4D87-ADD9-FB02D870ADF6}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{E8626EB1-97D6-45E9-99F1-7C2ACA16CC6C}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{66B25270-CE02-4799-A3A2-8C6DF8B6561E}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{197AA528-8EBD-493F-BA03-AD035C380389}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{D11EB0CA-A5BC-4E7D-9227-87806D8C4F91}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{30D44786-5D03-4777-8278-2B3A0E03A0EE}"/>
+    <hyperlink ref="A10" r:id="rId8" display="HEC" xr:uid="{5F5E2817-E00C-4478-90C4-A54A59695836}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{C2061A19-2852-4FA8-9794-8C7E8211AEE3}"/>
+    <hyperlink ref="AE2" r:id="rId10" xr:uid="{87C64E45-66E6-4F34-AA47-76C3D32A21AA}"/>
+    <hyperlink ref="AE3" r:id="rId11" xr:uid="{47E3ECB4-5A21-4660-B0C3-23197D24A8ED}"/>
+    <hyperlink ref="AE4" r:id="rId12" location=":~:text=For%20the%202021%2F22%20academic,(CAD)%20for%20international%20students.;http://www.sfu.ca/students/calendar/2020/fall/fees-and-regulations/tuition-fees/graduate.html;https://www.sfu.ca/students/financialaid/costs/international-students.html" display="https://www.sfu.ca/computing/current-students/graduate-students/academic-programs/professional-master-of-science-in-computer-science/about-the-program.html#:~:text=For%20the%202021%2F22%20academic,(CAD)%20for%20international%20students.;http://www.sfu.ca/students/calendar/2020/fall/fees-and-regulations/tuition-fees/graduate.html;https://www.sfu.ca/students/financialaid/costs/international-students.html" xr:uid="{F5D8F3EE-43E2-4517-BC84-77C3B9297B5C}"/>
+    <hyperlink ref="AE5" r:id="rId13" display="https://www.grad.ubc.ca/prospective-students/graduate-degree-programs/master-of-data-science;https://masterdatascience.ubc.ca/programs/vancouver;" xr:uid="{627459F2-9A0F-46DC-9068-EBA981F1AA89}"/>
+    <hyperlink ref="AE6" r:id="rId14" display="https://www.ryerson.ca/graduate/datascience/;" xr:uid="{F4502B21-9CC9-4E51-8E62-4D7A96DA283D}"/>
+    <hyperlink ref="AE7" r:id="rId15" location="msc-program;https://www.ualberta.ca/graduate-studies/current-students/tuition-and-fees/noninstructional-fees.html" xr:uid="{1415B117-50A4-409B-8A18-8DC8347B9AF2}"/>
+    <hyperlink ref="AE8" r:id="rId16" location="mm-analyt-n_any5_major_mg;https://www.mcgill.ca/desautels/programs/mma/admissions/tuition-financial-aid" display="https://www.mcgill.ca/desautels/programs/mma;https://www.mcgill.ca/study/2021-2022/faculties/desautels/graduate/programs/master-management-mm-analytics-non-thesis#mm-analyt-n_any5_major_mg;https://www.mcgill.ca/desautels/programs/mma/admissions/tuition-financial-aid" xr:uid="{9DE43D47-2148-40FA-A95F-F85B300DEEDC}"/>
+    <hyperlink ref="AE9" r:id="rId17" xr:uid="{8566D33D-46C5-435D-99B7-7C2A2FB5F856}"/>
+    <hyperlink ref="AE10" r:id="rId18" xr:uid="{2F56B922-229E-4E69-B892-C90BB76FDE70}"/>
+    <hyperlink ref="AE11" r:id="rId19" xr:uid="{120EF4AE-2B58-46B9-A4B0-A2831F2B2A8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghrit\data\git-public\masters-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5446C289-CD2E-427B-8ECE-DB1E814B579B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40411364-AF2B-4240-A01A-F2E6D2565BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="0" windowWidth="22524" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="206">
   <si>
     <t>mentions</t>
   </si>
@@ -289,24 +289,15 @@
     <t> Master of Data Science and Analytics,Diploma in Data Science and Analytics</t>
   </si>
   <si>
-    <t xml:space="preserve">  Western University  </t>
-  </si>
-  <si>
     <t>Master of Data Analytics</t>
   </si>
   <si>
     <t>University of Western Ontario</t>
   </si>
   <si>
-    <t>Master of Data Analytics , MSC IN MANAGEMENT: Business Analytics</t>
-  </si>
-  <si>
     <t>12 mo</t>
   </si>
   <si>
-    <t> Integrated Topics in Data Science and Analytics, Professional Internship in Data Science and Analytics/Research Internship in Data Science and Analytics</t>
-  </si>
-  <si>
     <t xml:space="preserve">  University of Ottawa  </t>
   </si>
   <si>
@@ -316,15 +307,9 @@
     <t xml:space="preserve">Master of Computer Science [M.C.S] (Applied Artificial Intelligence), Big Data Management and Analytics </t>
   </si>
   <si>
-    <t xml:space="preserve">  York University  </t>
-  </si>
-  <si>
     <t>Master of Business Analytics</t>
   </si>
   <si>
-    <t>Business Skills for Data Scientists, Data Consulting, Databases, Introduction to Data Science, Statistical Modelling I, Statistical Modelling II, Unstructured Data</t>
-  </si>
-  <si>
     <t>Thompson Rivers University</t>
   </si>
   <si>
@@ -373,12 +358,6 @@
     <t>301-351</t>
   </si>
   <si>
-    <t xml:space="preserve">  University of Saskatchewan  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ETS Montreal  </t>
-  </si>
-  <si>
     <t>Institution</t>
   </si>
   <si>
@@ -397,9 +376,6 @@
     <t>Incidental</t>
   </si>
   <si>
-    <t>Ancilary</t>
-  </si>
-  <si>
     <t>links</t>
   </si>
   <si>
@@ -428,9 +404,6 @@
   </si>
   <si>
     <t>8177/T</t>
-  </si>
-  <si>
-    <t>293.86/U</t>
   </si>
   <si>
     <t>https://www.sfu.ca/computing/current-students/graduate-students/academic-programs/professional-master-of-science-in-computer-science/about-the-program.html#:~:text=For%20the%202021%2F22%20academic,(CAD)%20for%20international%20students.;http://www.sfu.ca/students/calendar/2020/fall/fees-and-regulations/tuition-fees/graduate.html;https://www.sfu.ca/students/financialaid/costs/international-students.html</t>
@@ -505,27 +478,6 @@
     <t>https://www.ualberta.ca/computing-science/graduate-studies/programs-and-admissions/statistical-machine-learning.html#msc-program;https://www.ualberta.ca/graduate-studies/current-students/tuition-and-fees/noninstructional-fees.html</t>
   </si>
   <si>
-    <t xml:space="preserve">  Polytechnique Montreal  </t>
-  </si>
-  <si>
-    <t>27 500</t>
-  </si>
-  <si>
-    <t>16-24</t>
-  </si>
-  <si>
-    <t> Forecasting methods, Decision Analysis, Statistical Modelling</t>
-  </si>
-  <si>
-    <t>making them skilled in advanced methods of analysis, optimization, modelling, machine learning, and statistics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  University of Regina  </t>
-  </si>
-  <si>
-    <t>Introduction to Data Science, Business Skills for Data Scientists, Statistical Modelling</t>
-  </si>
-  <si>
     <t>Grade (CGPA)</t>
   </si>
   <si>
@@ -609,9 +561,6 @@
     <t>Acquistion and management of data; AI Ethics Policy; Analytical Decision making; Analytics for financial markets; Analytics project management; Big Data Analytics; Creating High-Performance Teams; Entrepreneurship and innovation; introduction to analytic modelling; intro to management; leading change; ml andAI; marketting analysis; ops and supply chain analytic; predictive modelling; pricing analytics</t>
   </si>
   <si>
-    <t>recommended</t>
-  </si>
-  <si>
     <t>79900(inclusive of living)</t>
   </si>
   <si>
@@ -619,13 +568,133 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>293.86/U + 74.13</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>recommended or</t>
+  </si>
+  <si>
+    <t>Course based (10) plus internship;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Career focused, multidisciplinary education. fundamental concepts and tools of data science and analytics, machine learning, and artificial intelligence (AI), as you refine your professional and leadership skills while developing and applying your technical knowledge and abilities. </t>
+  </si>
+  <si>
+    <t>February 1, 2022</t>
+  </si>
+  <si>
+    <t> 3.00/4 gpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not part of application but later </t>
+  </si>
+  <si>
+    <t>https://science.ucalgary.ca/data-science/programs/professional-programs/mdsa; https://www.ucalgary.ca/pubs/calendar/current/p-1-2.html</t>
+  </si>
+  <si>
+    <t> Integrated Topics in Data Science and Analytics, Professional Internship in Data Science and Analytics/Research Internship in Data Science and Analytics; Business Skills for Data Scientists;Data Analytics Consulting; Databases;Introduction to Data Science;Statistical Modelling I;Statistical Modelling II;Unstructured Data; Specialize in AI, Finance or generalist stream</t>
+  </si>
+  <si>
+    <t>2,  min 1 academic</t>
+  </si>
+  <si>
+    <t>https://www.uwo.ca/mda/;https://welcome.uwo.ca/next-steps/finances/index.html</t>
+  </si>
+  <si>
+    <t>2y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masters with theseis(15 units) or Coursework with project(30 units); Machine Learning and Ethic for AI + 12 units electives;  Theory of Computing, Software Engineering, Computer Application + 6 units elective; project (6 units) </t>
+  </si>
+  <si>
+    <t>31-01-2022, 30-april</t>
+  </si>
+  <si>
+    <t>6.5 - Individual 6.0</t>
+  </si>
+  <si>
+    <t>30066.26/Y</t>
+  </si>
+  <si>
+    <t>https://catalogue.uottawa.ca/en/graduate/master-computer-science-specialization-artificialintelligence/#text;https://www.uottawa.ca/university-fees/;https://www2.uottawa.ca/study/graduate-studies;https://www2.uottawa.ca/study/graduate-studies/program-specific-requirements;https://www.uottawa.ca/university-fees/ancillary-fees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  York University  - work exp</t>
+  </si>
+  <si>
+    <t>36 core credits, 9 electives; Term 1: Visual analytics &amp; modelling, Big data fundamentals and apps, data science I , realizing value from AI inn orgs + 3 electives; Term 2 - pred modelling, data science 2, project management, analytics consulting proj + 3 electives; Term 3 - models and apps in operational research, interpersoal managerial skills, ethics of AI plus 3; 2 term capstone of the program is an Analytics Consulting Project</t>
+  </si>
+  <si>
+    <t>All Schulich MBAN students are awarded the SAS™ (Statistical Analysis Software) certification upon completion of the program.; state of the art Deloitte Cognitive Analytics and Visualization Lab. They will directly interface with industry leaders and develop both technical and organizational expertise. ; All MBAN students are eligible for Vector Institute Scholarships valued at $17,500.</t>
+  </si>
+  <si>
+    <t>not given</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>7.0, with at least 6.5 for each component if studies were not completed in English.</t>
+  </si>
+  <si>
+    <t>80150(inclusive)</t>
+  </si>
+  <si>
+    <t>https://schulich.yorku.ca/programs/mban/;</t>
+  </si>
+  <si>
+    <t>Project or thesis options; Students pursuing the Thesis Option must have a confirmed faculty supervisor for their master’s thesis else application incomplete;DASC 6810 (graduate seminar) for two terms 2
+DASC 6910 (graduate project) 9
+MScDS core courses 12
+Elective courses 9;Core courses - stats design and inference for DS, linear models,  data and db management, theoretical ml;Additional courses-Advanced Modelling Techniques, Advanced Optimization Methods,Data Analysis in Business and Economics, Work Experience Credits, etc;</t>
+  </si>
+  <si>
+    <t>I dont know much about data science but university is good. I guess its a new course and I don't have any details about it. About part time jobs you really need to be patient bcos Kamloops is a small place and not many job opportunities. Prepare yourself to work in fast food joints they offer minimum pay and 20 hours. Retail stores such as Walmart, Superstore and Home depot also provide jobs to students. Dont assume that you can work on cash bcos cash jobs are limited. I pressume you are from India and if you have license then you can do delivery jobs. Accommodation is not cheap. One bedroom apartment will cost you $1200 cad depending on location. Most students prefer staying near university and often on sharing basis. Hope this helps.;</t>
+  </si>
+  <si>
+    <t>B for project, B+ for thesis</t>
+  </si>
+  <si>
+    <t>6.5 , individual 6.0</t>
+  </si>
+  <si>
+    <t>4s</t>
+  </si>
+  <si>
+    <t>38,528 </t>
+  </si>
+  <si>
+    <t>https://www.tru.ca/science/masters-degrees/mscds.html;https://www.tru.ca/current/enrolment-services/tuition.html;https://www.tru.ca/future/tuition/details.html</t>
+  </si>
+  <si>
+    <t>masters of science cs only</t>
+  </si>
+  <si>
+    <t>Master of Engineering in Applied Data Science (MADS)</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>6.5 , individual 6.0 - send directly</t>
+  </si>
+  <si>
+    <t>https://www.uvic.ca/ecs/ece/future/mads/index.php; https://www.uvic.ca/socialsciences/environmental/graduate/admission-requirements/index.php#:~:text=Admission%20requires%20a%20master's%20degree,may%20be%20required%20for%20admission.;https://www.uvic.ca/graduate/admissions/admission-requirements/index.php;https://www.uvic.ca/ecs/ece/future/mads/our-program/index.php</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,19 +800,54 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color rgb="FF313131"/>
+      <name val="Gotham Narrow SSm A"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3D3D3D"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF313131"/>
-      <name val="Gotham Narrow SSm A"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF282829"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,14 +860,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9F9F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -771,27 +869,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -845,17 +928,33 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="15" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="17" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1140,7 +1239,7 @@
   <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="A20" sqref="A20:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1150,7 +1249,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1195,7 +1294,7 @@
         <v>13</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>14</v>
@@ -1216,25 +1315,25 @@
         <v>19</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
+      </c>
+      <c r="AD1" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="AE1" s="22" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -1274,7 +1373,7 @@
       <c r="O2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="S2" t="s">
@@ -1299,18 +1398,20 @@
         <v>68500</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AB2" s="9">
         <v>125</v>
       </c>
       <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
+      <c r="AD2" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="AE2" s="12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -1344,7 +1445,7 @@
       <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="9" t="s">
         <v>34</v>
       </c>
       <c r="Q3" t="s">
@@ -1370,20 +1471,22 @@
       </c>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AB3" s="9">
         <v>125</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD3" s="9"/>
+        <v>117</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="AE3" s="12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -1426,7 +1529,7 @@
       <c r="O4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="9" t="s">
         <v>34</v>
       </c>
       <c r="S4" t="s">
@@ -1451,23 +1554,23 @@
         <v>43852.2</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AB4" s="9">
         <f>125+36</f>
         <v>161</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD4" s="9">
-        <v>75.13</v>
+        <v>168</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="AE4" s="12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -1491,25 +1594,25 @@
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="26" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="K5" s="9">
         <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="M5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>34</v>
       </c>
       <c r="Q5">
         <v>3</v>
       </c>
       <c r="S5" s="23" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="T5" t="s">
         <v>29</v>
@@ -1528,17 +1631,19 @@
       </c>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AB5" s="9">
         <v>168.25</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD5" s="9"/>
+        <v>127</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="AE5" s="12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="16.8">
@@ -1566,17 +1671,19 @@
       <c r="J6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>169</v>
+      </c>
       <c r="L6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="M6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="N6" t="s">
-        <v>140</v>
-      </c>
-      <c r="P6" t="s">
+        <v>131</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>52</v>
       </c>
       <c r="Q6" t="s">
@@ -1606,12 +1713,14 @@
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
+      <c r="AD6" s="12" t="s">
+        <v>133</v>
+      </c>
       <c r="AE6" s="12" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="16.8">
@@ -1643,15 +1752,15 @@
         <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>60</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="P7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>34</v>
       </c>
       <c r="Q7" t="s">
@@ -1677,20 +1786,22 @@
       </c>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD7" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="AE7" s="12" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1716,31 +1827,31 @@
         <v>45900</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="K8" s="9">
         <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="27" t="s">
-        <v>161</v>
+      <c r="P8" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="Q8">
         <v>2</v>
       </c>
       <c r="R8" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="S8" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="T8" t="s">
         <v>66</v>
@@ -1765,17 +1876,19 @@
         <v>19811</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="AC8" s="9">
         <v>2000</v>
       </c>
-      <c r="AD8" s="9"/>
+      <c r="AD8" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="AE8" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="17.399999999999999" thickBot="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="16.8">
       <c r="A9" s="12" t="s">
         <v>67</v>
       </c>
@@ -1797,26 +1910,26 @@
       <c r="I9" s="10">
         <v>51000</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>166</v>
+      <c r="J9" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="K9" s="9">
         <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="N9" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="P9" s="29">
         <v>44576</v>
       </c>
       <c r="Q9" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="S9" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="T9" t="s">
         <v>29</v>
@@ -1834,7 +1947,7 @@
         <v>53501</v>
       </c>
       <c r="Z9" s="9" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="AA9" s="9">
         <v>18200</v>
@@ -1843,14 +1956,16 @@
         <v>110</v>
       </c>
       <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
+      <c r="AD9" s="12" t="s">
+        <v>156</v>
+      </c>
       <c r="AE9" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="15" thickBot="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="12" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B10" s="9">
         <v>3</v>
@@ -1862,7 +1977,7 @@
         <v>88</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
@@ -1870,14 +1985,14 @@
       <c r="I10" s="10">
         <v>72500</v>
       </c>
-      <c r="J10" s="30" t="s">
-        <v>175</v>
+      <c r="J10" s="28" t="s">
+        <v>159</v>
       </c>
       <c r="K10" s="9">
         <v>45</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>73</v>
@@ -1885,7 +2000,7 @@
       <c r="N10" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="31">
+      <c r="P10" s="29">
         <v>42064</v>
       </c>
       <c r="Q10" t="s">
@@ -1901,7 +2016,7 @@
         <v>66</v>
       </c>
       <c r="V10" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="W10" s="9">
         <v>1.4</v>
@@ -1910,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9">
@@ -1919,8 +2034,11 @@
       <c r="AB10" s="9">
         <v>302.64</v>
       </c>
+      <c r="AD10" s="12" t="s">
+        <v>163</v>
+      </c>
       <c r="AE10" s="12" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1946,18 +2064,23 @@
       <c r="J11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>169</v>
+      </c>
       <c r="L11" t="s">
-        <v>180</v>
-      </c>
-      <c r="P11" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" s="9" t="s">
         <v>34</v>
       </c>
       <c r="S11">
         <v>6.5</v>
       </c>
+      <c r="T11" t="s">
+        <v>170</v>
+      </c>
       <c r="U11" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="W11" s="9">
         <v>1.3</v>
@@ -1966,10 +2089,13 @@
         <v>2</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>182</v>
+        <v>165</v>
+      </c>
+      <c r="AD11" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="AE11" s="12" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1995,10 +2121,38 @@
         <v>34</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="P12" t="s">
-        <v>34</v>
+      <c r="J12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="9">
+        <v>36</v>
+      </c>
+      <c r="L12" t="s">
+        <v>171</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>147</v>
+      </c>
+      <c r="R12" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="S12" t="s">
+        <v>175</v>
+      </c>
+      <c r="T12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" t="s">
+        <v>29</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
       </c>
       <c r="W12" s="9">
         <v>1.2</v>
@@ -2006,10 +2160,25 @@
       <c r="X12" s="9">
         <v>2</v>
       </c>
+      <c r="Y12" s="31">
+        <v>44880</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>7200</v>
+      </c>
+      <c r="AB12" s="30">
+        <v>145</v>
+      </c>
+      <c r="AC12" s="32">
+        <v>2008.19</v>
+      </c>
+      <c r="AD12" s="12" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="9">
         <v>2</v>
@@ -2024,16 +2193,40 @@
         <v>170</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="P13" t="s">
-        <v>34</v>
-      </c>
-      <c r="V13" t="s">
-        <v>34</v>
+        <v>82</v>
+      </c>
+      <c r="I13" s="10">
+        <v>33660</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="9">
+        <v>36</v>
+      </c>
+      <c r="L13" t="s">
+        <v>177</v>
+      </c>
+      <c r="P13" s="33">
+        <v>11324</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>178</v>
+      </c>
+      <c r="R13" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="S13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" t="s">
+        <v>29</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
       </c>
       <c r="W13" s="9">
         <v>1.1000000000000001</v>
@@ -2041,36 +2234,68 @@
       <c r="X13" s="9">
         <v>2</v>
       </c>
+      <c r="Y13" s="35">
+        <v>52110.74</v>
+      </c>
+      <c r="AA13" s="36">
+        <v>24185</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>125</v>
+      </c>
+      <c r="AD13" s="12" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="9">
+        <v>162</v>
+      </c>
+      <c r="E14" s="9">
+        <v>230</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K14" s="9">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>181</v>
+      </c>
+      <c r="P14" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q14">
         <v>2</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="10">
-        <v>33660</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" s="9">
-        <v>36</v>
-      </c>
-      <c r="L14" t="s">
-        <v>87</v>
-      </c>
-      <c r="P14" t="s">
-        <v>34</v>
+      <c r="R14" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="S14" t="s">
+        <v>183</v>
+      </c>
+      <c r="T14" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" t="s">
+        <v>29</v>
+      </c>
+      <c r="V14">
+        <v>6</v>
       </c>
       <c r="W14" s="9">
         <v>1</v>
@@ -2078,31 +2303,70 @@
       <c r="X14" s="9">
         <v>1</v>
       </c>
+      <c r="Y14" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z14" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>110</v>
+      </c>
+      <c r="AD14" s="12" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="B15" s="9">
         <v>1</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D15" s="9">
-        <v>162</v>
+        <v>401</v>
       </c>
       <c r="E15" s="9">
-        <v>230</v>
+        <v>494</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+        <v>88</v>
+      </c>
+      <c r="I15" s="10">
+        <v>28500</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="9">
+        <v>45</v>
+      </c>
+      <c r="L15" t="s">
+        <v>187</v>
+      </c>
+      <c r="N15" t="s">
+        <v>188</v>
+      </c>
       <c r="P15" t="s">
-        <v>34</v>
+        <v>189</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15" t="s">
+        <v>190</v>
+      </c>
+      <c r="S15" t="s">
+        <v>191</v>
+      </c>
+      <c r="T15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" t="s">
+        <v>29</v>
       </c>
       <c r="W15" s="9">
         <v>1</v>
@@ -2110,306 +2374,288 @@
       <c r="X15" s="9">
         <v>1</v>
       </c>
-      <c r="Y15" t="s">
-        <v>184</v>
+      <c r="Y15" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD15" s="12" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="9">
         <v>1</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="9">
-        <v>401</v>
-      </c>
-      <c r="E16" s="9">
-        <v>494</v>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="10">
-        <v>28500</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="I16" s="10"/>
       <c r="J16" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>23</v>
+        <v>180</v>
+      </c>
+      <c r="K16" s="9">
+        <v>32</v>
       </c>
       <c r="L16" t="s">
-        <v>93</v>
+        <v>194</v>
+      </c>
+      <c r="O16" s="39" t="s">
+        <v>195</v>
       </c>
       <c r="P16" t="s">
         <v>34</v>
       </c>
+      <c r="R16" t="s">
+        <v>196</v>
+      </c>
+      <c r="S16" t="s">
+        <v>197</v>
+      </c>
+      <c r="T16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" t="s">
+        <v>29</v>
+      </c>
+      <c r="V16" t="s">
+        <v>198</v>
+      </c>
       <c r="W16" s="9">
         <v>1</v>
       </c>
       <c r="X16" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="Y16" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA16" s="40">
+        <v>23502</v>
+      </c>
+      <c r="AB16">
+        <v>100</v>
+      </c>
+      <c r="AC16" s="32">
+        <f>2197.88+496+233</f>
+        <v>2926.88</v>
+      </c>
+      <c r="AD16" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9">
+        <v>6</v>
+      </c>
+      <c r="D17" s="9">
+        <v>88</v>
+      </c>
+      <c r="E17" s="9">
+        <v>111</v>
+      </c>
+      <c r="I17" s="10">
+        <v>24480</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="9">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" t="s">
+        <v>93</v>
+      </c>
+      <c r="N17" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="9">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="9"/>
       <c r="P17" t="s">
         <v>34</v>
       </c>
-      <c r="W17" s="9">
-        <v>1</v>
-      </c>
-      <c r="X17" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="1:30" ht="16.8">
       <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9">
-        <v>6</v>
-      </c>
-      <c r="D18" s="9">
-        <v>88</v>
-      </c>
-      <c r="E18" s="9">
-        <v>111</v>
+      <c r="D18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>201</v>
       </c>
       <c r="I18" s="10">
-        <v>24480</v>
+        <v>23077.66</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="K18" s="9">
         <v>32</v>
       </c>
       <c r="L18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M18" t="s">
-        <v>98</v>
-      </c>
-      <c r="N18" s="14" t="s">
         <v>99</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="P18" t="s">
         <v>34</v>
       </c>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-    </row>
-    <row r="19" spans="1:28" ht="16.8">
+      <c r="W18" s="9">
+        <v>2</v>
+      </c>
+      <c r="X18" s="9">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="10">
-        <v>23077.66</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E19" s="9">
+        <v>334</v>
+      </c>
+      <c r="F19" t="s">
+        <v>202</v>
+      </c>
+      <c r="I19" s="10"/>
       <c r="J19" s="9" t="s">
         <v>51</v>
       </c>
       <c r="K19" s="9">
-        <v>32</v>
-      </c>
-      <c r="L19" t="s">
-        <v>103</v>
-      </c>
-      <c r="M19" t="s">
-        <v>104</v>
-      </c>
-      <c r="N19" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="P19" t="s">
         <v>34</v>
       </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s">
+        <v>203</v>
+      </c>
+      <c r="S19" t="s">
+        <v>204</v>
+      </c>
+      <c r="T19" t="s">
+        <v>29</v>
+      </c>
+      <c r="U19" t="s">
+        <v>29</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
       <c r="W19" s="9">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X19" s="9">
         <v>2</v>
       </c>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-    </row>
-    <row r="20" spans="1:28">
-      <c r="A20" t="s">
-        <v>107</v>
-      </c>
+      <c r="Y19" s="42">
+        <v>38000</v>
+      </c>
+      <c r="AB19" s="43">
+        <v>169</v>
+      </c>
+      <c r="AD19" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="9">
-        <v>334</v>
-      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="I20" s="10"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="P20" t="s">
-        <v>34</v>
-      </c>
-      <c r="W20" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="X20" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
-      <c r="A21" t="s">
-        <v>110</v>
-      </c>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+    </row>
+    <row r="21" spans="1:30">
       <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
-        <v>80</v>
-      </c>
+      <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="9">
-        <v>458</v>
-      </c>
+      <c r="E21" s="9"/>
       <c r="I21" s="10"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="P21" t="s">
-        <v>34</v>
-      </c>
-      <c r="W21" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="X21" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
-      <c r="A22" t="s">
-        <v>111</v>
-      </c>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+    </row>
+    <row r="22" spans="1:30">
       <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="E22" s="9"/>
       <c r="I22" s="10"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="P22" t="s">
-        <v>34</v>
-      </c>
-      <c r="W22" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="X22" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
-      <c r="A23" t="s">
-        <v>150</v>
-      </c>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+    </row>
+    <row r="23" spans="1:30">
       <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="9">
-        <v>88</v>
-      </c>
-      <c r="E23" s="9">
-        <v>111</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>152</v>
-      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="P23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
-      <c r="A24" t="s">
-        <v>155</v>
-      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:30">
       <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="10">
-        <v>52047.56</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>51</v>
-      </c>
+      <c r="E24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="9"/>
-      <c r="L24" t="s">
-        <v>156</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="P24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="1:30">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2418,7 +2664,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:30">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -2427,7 +2673,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:30">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -2439,7 +2685,7 @@
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:30">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -2449,7 +2695,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:30">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2459,7 +2705,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:30">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2468,7 +2714,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:30">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -2478,7 +2724,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:30">
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2528,25 +2774,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="► University of Toronto  " xr:uid="{B09B0BE7-D0C1-4E49-81C4-18E10A4B7B0F}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{748C9DA2-ED8E-4D87-ADD9-FB02D870ADF6}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{E8626EB1-97D6-45E9-99F1-7C2ACA16CC6C}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{66B25270-CE02-4799-A3A2-8C6DF8B6561E}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{197AA528-8EBD-493F-BA03-AD035C380389}"/>
-    <hyperlink ref="A9" r:id="rId6" xr:uid="{D11EB0CA-A5BC-4E7D-9227-87806D8C4F91}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{30D44786-5D03-4777-8278-2B3A0E03A0EE}"/>
-    <hyperlink ref="A10" r:id="rId8" display="HEC" xr:uid="{5F5E2817-E00C-4478-90C4-A54A59695836}"/>
-    <hyperlink ref="A11" r:id="rId9" xr:uid="{C2061A19-2852-4FA8-9794-8C7E8211AEE3}"/>
-    <hyperlink ref="AE2" r:id="rId10" xr:uid="{87C64E45-66E6-4F34-AA47-76C3D32A21AA}"/>
-    <hyperlink ref="AE3" r:id="rId11" xr:uid="{47E3ECB4-5A21-4660-B0C3-23197D24A8ED}"/>
-    <hyperlink ref="AE4" r:id="rId12" location=":~:text=For%20the%202021%2F22%20academic,(CAD)%20for%20international%20students.;http://www.sfu.ca/students/calendar/2020/fall/fees-and-regulations/tuition-fees/graduate.html;https://www.sfu.ca/students/financialaid/costs/international-students.html" display="https://www.sfu.ca/computing/current-students/graduate-students/academic-programs/professional-master-of-science-in-computer-science/about-the-program.html#:~:text=For%20the%202021%2F22%20academic,(CAD)%20for%20international%20students.;http://www.sfu.ca/students/calendar/2020/fall/fees-and-regulations/tuition-fees/graduate.html;https://www.sfu.ca/students/financialaid/costs/international-students.html" xr:uid="{F5D8F3EE-43E2-4517-BC84-77C3B9297B5C}"/>
-    <hyperlink ref="AE5" r:id="rId13" display="https://www.grad.ubc.ca/prospective-students/graduate-degree-programs/master-of-data-science;https://masterdatascience.ubc.ca/programs/vancouver;" xr:uid="{627459F2-9A0F-46DC-9068-EBA981F1AA89}"/>
-    <hyperlink ref="AE6" r:id="rId14" display="https://www.ryerson.ca/graduate/datascience/;" xr:uid="{F4502B21-9CC9-4E51-8E62-4D7A96DA283D}"/>
-    <hyperlink ref="AE7" r:id="rId15" location="msc-program;https://www.ualberta.ca/graduate-studies/current-students/tuition-and-fees/noninstructional-fees.html" xr:uid="{1415B117-50A4-409B-8A18-8DC8347B9AF2}"/>
-    <hyperlink ref="AE8" r:id="rId16" location="mm-analyt-n_any5_major_mg;https://www.mcgill.ca/desautels/programs/mma/admissions/tuition-financial-aid" display="https://www.mcgill.ca/desautels/programs/mma;https://www.mcgill.ca/study/2021-2022/faculties/desautels/graduate/programs/master-management-mm-analytics-non-thesis#mm-analyt-n_any5_major_mg;https://www.mcgill.ca/desautels/programs/mma/admissions/tuition-financial-aid" xr:uid="{9DE43D47-2148-40FA-A95F-F85B300DEEDC}"/>
-    <hyperlink ref="AE9" r:id="rId17" xr:uid="{8566D33D-46C5-435D-99B7-7C2A2FB5F856}"/>
-    <hyperlink ref="AE10" r:id="rId18" xr:uid="{2F56B922-229E-4E69-B892-C90BB76FDE70}"/>
-    <hyperlink ref="AE11" r:id="rId19" xr:uid="{120EF4AE-2B58-46B9-A4B0-A2831F2B2A8B}"/>
+    <hyperlink ref="AE2" r:id="rId1" xr:uid="{87C64E45-66E6-4F34-AA47-76C3D32A21AA}"/>
+    <hyperlink ref="AE3" r:id="rId2" xr:uid="{47E3ECB4-5A21-4660-B0C3-23197D24A8ED}"/>
+    <hyperlink ref="AE4" r:id="rId3" location=":~:text=For%20the%202021%2F22%20academic,(CAD)%20for%20international%20students.;http://www.sfu.ca/students/calendar/2020/fall/fees-and-regulations/tuition-fees/graduate.html;https://www.sfu.ca/students/financialaid/costs/international-students.html" display="https://www.sfu.ca/computing/current-students/graduate-students/academic-programs/professional-master-of-science-in-computer-science/about-the-program.html#:~:text=For%20the%202021%2F22%20academic,(CAD)%20for%20international%20students.;http://www.sfu.ca/students/calendar/2020/fall/fees-and-regulations/tuition-fees/graduate.html;https://www.sfu.ca/students/financialaid/costs/international-students.html" xr:uid="{F5D8F3EE-43E2-4517-BC84-77C3B9297B5C}"/>
+    <hyperlink ref="AE5" r:id="rId4" display="https://www.grad.ubc.ca/prospective-students/graduate-degree-programs/master-of-data-science;https://masterdatascience.ubc.ca/programs/vancouver;" xr:uid="{627459F2-9A0F-46DC-9068-EBA981F1AA89}"/>
+    <hyperlink ref="AE6" r:id="rId5" display="https://www.ryerson.ca/graduate/datascience/;" xr:uid="{F4502B21-9CC9-4E51-8E62-4D7A96DA283D}"/>
+    <hyperlink ref="AE7" r:id="rId6" location="msc-program;https://www.ualberta.ca/graduate-studies/current-students/tuition-and-fees/noninstructional-fees.html" xr:uid="{1415B117-50A4-409B-8A18-8DC8347B9AF2}"/>
+    <hyperlink ref="AE8" r:id="rId7" location="mm-analyt-n_any5_major_mg;https://www.mcgill.ca/desautels/programs/mma/admissions/tuition-financial-aid" display="https://www.mcgill.ca/desautels/programs/mma;https://www.mcgill.ca/study/2021-2022/faculties/desautels/graduate/programs/master-management-mm-analytics-non-thesis#mm-analyt-n_any5_major_mg;https://www.mcgill.ca/desautels/programs/mma/admissions/tuition-financial-aid" xr:uid="{9DE43D47-2148-40FA-A95F-F85B300DEEDC}"/>
+    <hyperlink ref="AE9" r:id="rId8" xr:uid="{8566D33D-46C5-435D-99B7-7C2A2FB5F856}"/>
+    <hyperlink ref="AE10" r:id="rId9" xr:uid="{2F56B922-229E-4E69-B892-C90BB76FDE70}"/>
+    <hyperlink ref="AE11" r:id="rId10" xr:uid="{120EF4AE-2B58-46B9-A4B0-A2831F2B2A8B}"/>
+    <hyperlink ref="A2" r:id="rId11" display="► University of Toronto  " xr:uid="{3642FEFB-9304-48F0-9D4C-D2A71CA8B639}"/>
+    <hyperlink ref="A6" r:id="rId12" xr:uid="{B33DD7A9-C435-4345-96F1-4658A4F1F2E1}"/>
+    <hyperlink ref="A3" r:id="rId13" xr:uid="{14855060-CB59-4046-B524-74DF844E5EB2}"/>
+    <hyperlink ref="A4" r:id="rId14" xr:uid="{20C15B09-1295-4B03-B1B4-9353E393351E}"/>
+    <hyperlink ref="A7" r:id="rId15" xr:uid="{0D8D8F25-99AC-45C9-859C-C0AD21D75F9E}"/>
+    <hyperlink ref="A9" r:id="rId16" xr:uid="{F71D971F-6920-4D35-A7B8-B0D5AAAF3170}"/>
+    <hyperlink ref="A8" r:id="rId17" xr:uid="{4FF9F385-50A0-4EF5-8117-6C3199E4FBF0}"/>
+    <hyperlink ref="A10" r:id="rId18" display="HEC" xr:uid="{B85EDC01-37E9-47EC-8336-4702E384FCA1}"/>
+    <hyperlink ref="A11" r:id="rId19" xr:uid="{AC08E857-94F2-459E-A894-AF15F5813356}"/>
+    <hyperlink ref="AD2" r:id="rId20" xr:uid="{4644C99C-9337-49A1-8EF6-8EF731489634}"/>
+    <hyperlink ref="AD3" r:id="rId21" xr:uid="{F96803B1-63BB-4259-A5C1-A6E6D4D161C7}"/>
+    <hyperlink ref="AD4" r:id="rId22" location=":~:text=For%20the%202021%2F22%20academic,(CAD)%20for%20international%20students.;http://www.sfu.ca/students/calendar/2020/fall/fees-and-regulations/tuition-fees/graduate.html;https://www.sfu.ca/students/financialaid/costs/international-students.html" display="https://www.sfu.ca/computing/current-students/graduate-students/academic-programs/professional-master-of-science-in-computer-science/about-the-program.html#:~:text=For%20the%202021%2F22%20academic,(CAD)%20for%20international%20students.;http://www.sfu.ca/students/calendar/2020/fall/fees-and-regulations/tuition-fees/graduate.html;https://www.sfu.ca/students/financialaid/costs/international-students.html" xr:uid="{CCCAC97B-8B75-4BF6-8D1A-5B15E4ED94C9}"/>
+    <hyperlink ref="AD5" r:id="rId23" display="https://www.grad.ubc.ca/prospective-students/graduate-degree-programs/master-of-data-science;https://masterdatascience.ubc.ca/programs/vancouver;" xr:uid="{8AAADC24-43B7-4882-9756-54FDC7F62C55}"/>
+    <hyperlink ref="AD6" r:id="rId24" display="https://www.ryerson.ca/graduate/datascience/;" xr:uid="{72762EDB-D748-41AE-9C8F-2DE2627FC147}"/>
+    <hyperlink ref="AD7" r:id="rId25" location="msc-program;https://www.ualberta.ca/graduate-studies/current-students/tuition-and-fees/noninstructional-fees.html" xr:uid="{30F06BC9-7E3D-4790-98B3-ECB1F1B0FF7B}"/>
+    <hyperlink ref="AD8" r:id="rId26" location="mm-analyt-n_any5_major_mg;https://www.mcgill.ca/desautels/programs/mma/admissions/tuition-financial-aid" display="https://www.mcgill.ca/desautels/programs/mma;https://www.mcgill.ca/study/2021-2022/faculties/desautels/graduate/programs/master-management-mm-analytics-non-thesis#mm-analyt-n_any5_major_mg;https://www.mcgill.ca/desautels/programs/mma/admissions/tuition-financial-aid" xr:uid="{784365A5-C4CD-4069-B5E9-E89DAB8D178B}"/>
+    <hyperlink ref="AD9" r:id="rId27" xr:uid="{9B1207D9-5DF1-436A-8960-DD5F4A65C606}"/>
+    <hyperlink ref="AD10" r:id="rId28" xr:uid="{9434FD1B-8467-49D7-9012-23A2AFCA32F4}"/>
+    <hyperlink ref="AD11" r:id="rId29" xr:uid="{02D1652F-A892-4C29-B7CE-CDC289105237}"/>
+    <hyperlink ref="AD12" r:id="rId30" display="https://science.ucalgary.ca/data-science/programs/professional-programs/mdsa;" xr:uid="{1B4C983A-7EC2-4BF9-A340-B1E16FF8E72A}"/>
+    <hyperlink ref="AD13" r:id="rId31" xr:uid="{D7C48ADD-5B99-4AC3-8332-EA5AD3B0C365}"/>
+    <hyperlink ref="AD14" r:id="rId32" location="text;https://www.uottawa.ca/university-fees/;https://www2.uottawa.ca/study/graduate-studies;https://www2.uottawa.ca/study/graduate-studies/program-specific-requirements;https://www.uottawa.ca/university-fees/ancillary-fees" display="https://catalogue.uottawa.ca/en/graduate/master-computer-science-specialization-artificialintelligence/#text;https://www.uottawa.ca/university-fees/;https://www2.uottawa.ca/study/graduate-studies;https://www2.uottawa.ca/study/graduate-studies/program-specific-requirements;https://www.uottawa.ca/university-fees/ancillary-fees" xr:uid="{0DB67BBA-C61F-4EC7-90E5-9E19B6409B6D}"/>
+    <hyperlink ref="AD16" r:id="rId33" xr:uid="{79DD5B84-A6E3-4093-9788-64FB5F22894A}"/>
+    <hyperlink ref="AD15" r:id="rId34" xr:uid="{C4F0C086-BD77-48DD-B6FF-059AD739AF81}"/>
+    <hyperlink ref="AD19" r:id="rId35" display="https://www.uvic.ca/ecs/ece/future/mads/index.php;" xr:uid="{E09F843F-1CFF-4E8F-A55F-045698A2D229}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
